--- a/relic_data.xlsx
+++ b/relic_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\yuanshen\relic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxf\Documents\GitHub\yuanshen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5C91AC-9271-479C-AA42-AC0D1B0533D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC35EB70-0462-4BD1-AF1A-AC33AC0D8C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1275" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1509" yWindow="1509" windowWidth="16457" windowHeight="9548" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="时钟" sheetId="1" r:id="rId1"/>
+    <sheet name="花" sheetId="2" r:id="rId2"/>
+    <sheet name="羽毛" sheetId="3" r:id="rId3"/>
+    <sheet name="杯子" sheetId="4" r:id="rId4"/>
+    <sheet name="帽子" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -433,12 +433,12 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -488,9 +488,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,9 +539,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,9 +590,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,12 +638,12 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
